--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nell2-Robo3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nell2-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Nell2</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,22 +537,22 @@
         <v>0.070092</v>
       </c>
       <c r="I2">
-        <v>0.7172811838025359</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7172811838025358</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.588157666666667</v>
+        <v>4.779790999999999</v>
       </c>
       <c r="N2">
-        <v>7.764473</v>
+        <v>14.339373</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,78 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.060469715724</v>
+        <v>0.111675036924</v>
       </c>
       <c r="R2">
-        <v>0.544227441516</v>
+        <v>1.005075332316</v>
       </c>
       <c r="S2">
-        <v>0.7172811838025359</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.7172811838025358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G3">
-        <v>0.009209</v>
-      </c>
-      <c r="H3">
-        <v>0.027627</v>
-      </c>
-      <c r="I3">
-        <v>0.2827188161974642</v>
-      </c>
-      <c r="J3">
-        <v>0.2827188161974641</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M3">
-        <v>2.588157666666667</v>
-      </c>
-      <c r="N3">
-        <v>7.764473</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.02383434395233333</v>
-      </c>
-      <c r="R3">
-        <v>0.214509095571</v>
-      </c>
-      <c r="S3">
-        <v>0.2827188161974642</v>
-      </c>
-      <c r="T3">
-        <v>0.2827188161974641</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
